--- a/HN SA 2016 ( DEPOSITOS )/DEPOSITOS FEBRERO 2016.-/ALCOSUR.-.xlsx
+++ b/HN SA 2016 ( DEPOSITOS )/DEPOSITOS FEBRERO 2016.-/ALCOSUR.-.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="54">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">001-001-3243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nota de credito</t>
   </si>
   <si>
     <t xml:space="preserve">001-001-3244</t>
@@ -287,7 +284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,16 +345,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -397,10 +386,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="N:AA"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -753,7 +742,7 @@
       <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="7" t="n">
@@ -908,10 +897,10 @@
       <c r="F14" s="7" t="n">
         <v>3510</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="15" t="n">
         <v>58266000</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="8" t="n">
         <v>14705163</v>
       </c>
@@ -932,13 +921,13 @@
       <c r="A15" s="5" t="n">
         <v>42411</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="7" t="n">
@@ -961,13 +950,13 @@
       <c r="A16" s="5" t="n">
         <v>42411</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="7" t="n">
@@ -990,13 +979,13 @@
       <c r="A17" s="5" t="n">
         <v>42411</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="7" t="n">
@@ -1019,13 +1008,13 @@
       <c r="A18" s="5" t="n">
         <v>42411</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="7"/>
@@ -1089,7 +1078,7 @@
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="7" t="n">
@@ -1122,13 +1111,13 @@
       <c r="A21" s="5" t="n">
         <v>42411</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="7" t="n">
@@ -1151,13 +1140,13 @@
       <c r="A22" s="5" t="n">
         <v>42411</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="7" t="n">
@@ -1190,13 +1179,13 @@
       <c r="A23" s="5" t="n">
         <v>42411</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="7" t="n">
@@ -1219,13 +1208,13 @@
       <c r="A24" s="5" t="n">
         <v>42411</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="7" t="n">
@@ -1355,13 +1344,13 @@
       <c r="A28" s="5" t="n">
         <v>42408</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="7" t="n">
@@ -1384,13 +1373,13 @@
       <c r="A29" s="5" t="n">
         <v>42408</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="7" t="n">
@@ -1423,13 +1412,13 @@
       <c r="A30" s="5" t="n">
         <v>42412</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="7" t="n">
@@ -1452,13 +1441,13 @@
       <c r="A31" s="5" t="n">
         <v>42412</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="7" t="n">
@@ -1769,7 +1758,7 @@
       <c r="C40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="7" t="n">
@@ -1808,7 +1797,7 @@
       <c r="C41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="7" t="n">
@@ -1837,7 +1826,7 @@
       <c r="C42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="7" t="n">
@@ -1855,9 +1844,6 @@
       <c r="K42" s="9"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="0" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
@@ -1869,7 +1855,7 @@
       <c r="C43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="7"/>
@@ -1901,12 +1887,12 @@
         <v>42423</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="7" t="n">
@@ -1930,12 +1916,12 @@
         <v>42423</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E45" s="7" t="n">
@@ -1968,13 +1954,13 @@
       <c r="A46" s="13" t="n">
         <v>42423</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="17" t="s">
+      <c r="B46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="7" t="n">
@@ -1997,13 +1983,13 @@
       <c r="A47" s="13" t="n">
         <v>42423</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="17" t="s">
+      <c r="B47" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="7" t="n">
@@ -2036,13 +2022,13 @@
       <c r="A48" s="13" t="n">
         <v>42419</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="17" t="s">
+      <c r="B48" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="7" t="n">
@@ -2065,13 +2051,13 @@
       <c r="A49" s="13" t="n">
         <v>42419</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="17" t="s">
+      <c r="B49" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="7" t="n">
@@ -2104,13 +2090,13 @@
       <c r="A50" s="13" t="n">
         <v>42419</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="17" t="s">
+      <c r="B50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="7" t="n">
@@ -2133,13 +2119,13 @@
       <c r="A51" s="13" t="n">
         <v>42419</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="17" t="s">
+      <c r="B51" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="7" t="n">
@@ -2162,13 +2148,13 @@
       <c r="A52" s="13" t="n">
         <v>42419</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="17" t="s">
+      <c r="B52" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="7" t="n">
@@ -2201,13 +2187,13 @@
       <c r="A53" s="13" t="n">
         <v>42424</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="17" t="s">
+      <c r="B53" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="7" t="n">
@@ -2230,13 +2216,13 @@
       <c r="A54" s="13" t="n">
         <v>42424</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="17" t="s">
+      <c r="B54" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="7" t="n">
@@ -2259,13 +2245,13 @@
       <c r="A55" s="13" t="n">
         <v>42424</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="17" t="s">
+      <c r="B55" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="7" t="n">
@@ -2298,19 +2284,19 @@
       <c r="A56" s="13" t="n">
         <v>42425</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="17" t="n">
+      <c r="B56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="10" t="n">
         <v>5200</v>
       </c>
-      <c r="F56" s="17" t="n">
+      <c r="F56" s="10" t="n">
         <v>3595</v>
       </c>
       <c r="G56" s="7" t="n">
@@ -2327,19 +2313,19 @@
       <c r="A57" s="13" t="n">
         <v>42425</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="17" t="s">
+      <c r="B57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="17" t="n">
+      <c r="E57" s="10" t="n">
         <v>10600</v>
       </c>
-      <c r="F57" s="17" t="n">
+      <c r="F57" s="10" t="n">
         <v>3380</v>
       </c>
       <c r="G57" s="7" t="n">
@@ -2366,19 +2352,19 @@
       <c r="A58" s="13" t="n">
         <v>42426</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="17" t="n">
+      <c r="B58" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="10" t="n">
         <v>10500</v>
       </c>
-      <c r="F58" s="17" t="n">
+      <c r="F58" s="10" t="n">
         <v>3595</v>
       </c>
       <c r="G58" s="7" t="n">
@@ -2395,19 +2381,19 @@
       <c r="A59" s="13" t="n">
         <v>42426</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="17" t="s">
+      <c r="B59" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="17" t="n">
+      <c r="E59" s="10" t="n">
         <v>6200</v>
       </c>
-      <c r="F59" s="17" t="n">
+      <c r="F59" s="10" t="n">
         <v>4715</v>
       </c>
       <c r="G59" s="7" t="n">
@@ -2434,19 +2420,19 @@
       <c r="A60" s="13" t="n">
         <v>42427</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="17" t="n">
+      <c r="B60" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="10" t="n">
         <v>10600</v>
       </c>
-      <c r="F60" s="17" t="n">
+      <c r="F60" s="10" t="n">
         <v>3595</v>
       </c>
       <c r="G60" s="7" t="n">
@@ -2463,19 +2449,19 @@
       <c r="A61" s="13" t="n">
         <v>42427</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="17" t="s">
+      <c r="B61" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="17" t="n">
+      <c r="E61" s="10" t="n">
         <v>5200</v>
       </c>
-      <c r="F61" s="17" t="n">
+      <c r="F61" s="10" t="n">
         <v>3885</v>
       </c>
       <c r="G61" s="7" t="n">
@@ -2488,7 +2474,7 @@
       <c r="J61" s="11" t="n">
         <v>42461</v>
       </c>
-      <c r="K61" s="18" t="n">
+      <c r="K61" s="16" t="n">
         <v>58309000</v>
       </c>
       <c r="L61" s="10" t="s">
@@ -2498,24 +2484,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20" t="n">
+    <row r="62" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="18" t="n">
         <f aca="false">SUM(G2:G61)</f>
         <v>1797461500</v>
       </c>
-      <c r="H62" s="20" t="n">
+      <c r="H62" s="18" t="n">
         <f aca="false">SUM(H2:H61)</f>
         <v>9897000</v>
       </c>
-      <c r="K62" s="20" t="n">
+      <c r="K62" s="18" t="n">
         <f aca="false">SUM(K2:K61)</f>
         <v>1807358500</v>
       </c>
@@ -2524,18 +2510,12 @@
       <c r="AMJ62" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G64" s="20" t="n">
+      <c r="G64" s="18" t="n">
         <f aca="false">G62+H62</f>
         <v>1807358500</v>
       </c>
-      <c r="I64" s="22"/>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="I64" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A62:F62"/>
